--- a/Undertaker Matches.xlsx
+++ b/Undertaker Matches.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Taker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA1654-DC90-4B0B-A700-B9F782AFB41F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF0614-5EEA-48F5-BAFD-93105A1BA0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="421">
   <si>
     <t>no.</t>
   </si>
@@ -1284,6 +1284,15 @@
   </si>
   <si>
     <t>The Undertaker Vs. Kane Vs. Steve Austin</t>
+  </si>
+  <si>
+    <t>09.01.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #74</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Kane Vs. Rikishi Vs. The Rock</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1408,6 +1417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1691,7 +1701,7 @@
   <dimension ref="A1:E369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4447,8 +4457,14 @@
       <c r="A195" s="6">
         <v>194</v>
       </c>
-      <c r="C195" s="1">
-        <v>2001</v>
+      <c r="B195" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D195" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -4460,6 +4476,7 @@
       <c r="A197" s="6">
         <v>196</v>
       </c>
+      <c r="D197" s="16"/>
     </row>
     <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A198" s="6">

--- a/Undertaker Matches.xlsx
+++ b/Undertaker Matches.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Taker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF0614-5EEA-48F5-BAFD-93105A1BA0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9B4E2E-6496-46C6-BA06-95BD7FC811FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TAKER" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="487">
   <si>
     <t>no.</t>
   </si>
@@ -1293,6 +1293,204 @@
   </si>
   <si>
     <t>The Undertaker Vs. Kane Vs. Rikishi Vs. The Rock</t>
+  </si>
+  <si>
+    <t>15.01.2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAW </t>
+  </si>
+  <si>
+    <t>16.01.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #75</t>
+  </si>
+  <si>
+    <t> Steve Austin, The Rock &amp; The Undertaker defeat Kane, Kurt Angle &amp; Rikishi</t>
+  </si>
+  <si>
+    <t>Rikishi &amp; The Undertaker Vs. Kane &amp; The Rock</t>
+  </si>
+  <si>
+    <t>21.01.2001</t>
+  </si>
+  <si>
+    <t>Royal Rumble 2001</t>
+  </si>
+  <si>
+    <t>23.01.2001</t>
+  </si>
+  <si>
+    <t>29.01.2001</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Haku</t>
+  </si>
+  <si>
+    <t>30.01.2001</t>
+  </si>
+  <si>
+    <t> Kane &amp; The Undertaker Vs. Haku &amp; Rikishi</t>
+  </si>
+  <si>
+    <t>Smack Down #76</t>
+  </si>
+  <si>
+    <t>Smack Down #77</t>
+  </si>
+  <si>
+    <t>05.02.2001</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker Vs. The Dudley Boyz (Buh Buh Ray Dudley &amp; D-Von Dudley)</t>
+  </si>
+  <si>
+    <t>12.02.2001</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker Vs. Christian &amp; Edge</t>
+  </si>
+  <si>
+    <t>19.02.2001</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Christian Vs. D-Von Dudley</t>
+  </si>
+  <si>
+    <t>20.02.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #80</t>
+  </si>
+  <si>
+    <t>25.02.2001</t>
+  </si>
+  <si>
+    <t>No Way Out 2001</t>
+  </si>
+  <si>
+    <t>Kane, The Rock &amp; The Undertaker Vs. Christian, Edge &amp; Kurt Angle</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker Vs. The Dudley Boyz (Bubba Ray Dudley &amp; D-Von Dudley) Vs.Christian &amp; Edge</t>
+  </si>
+  <si>
+    <t>27.02.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #81</t>
+  </si>
+  <si>
+    <t>D-Von Dudley, Kane &amp; The Undertaker defeat Christian, Haku &amp; Rikishi </t>
+  </si>
+  <si>
+    <t>05.03.2001</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker defeat Haku &amp; Rikishi </t>
+  </si>
+  <si>
+    <t>26.03.2001</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker Vs. Steve Austin &amp; The Rock</t>
+  </si>
+  <si>
+    <t>01.04.2001</t>
+  </si>
+  <si>
+    <t>Wrestlemania X-7</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Triple H</t>
+  </si>
+  <si>
+    <t>03.04.2001</t>
+  </si>
+  <si>
+    <t> Kane &amp; The Undertaker Vs. The Right To Censor (Bull Buchanan, Steven Richards &amp; The Goodfather)</t>
+  </si>
+  <si>
+    <t>Smack Down #86</t>
+  </si>
+  <si>
+    <t>09.04.2001</t>
+  </si>
+  <si>
+    <t>The Undertaker defeats The Big Show</t>
+  </si>
+  <si>
+    <t>10.04.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #87</t>
+  </si>
+  <si>
+    <t> Kane &amp; The Undertaker Vs. Kai En Tai (Funaki &amp; Taka Michinoku) &amp; The Big Show</t>
+  </si>
+  <si>
+    <t>17.04.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #88</t>
+  </si>
+  <si>
+    <t>23.04.2001</t>
+  </si>
+  <si>
+    <t>24.04.2001</t>
+  </si>
+  <si>
+    <t>The Hardy Boyz (Jeff Hardy &amp; Matt Hardy), Kane &amp; The Undertaker Vs. Christian, Edge, Steve Austin &amp; Triple H</t>
+  </si>
+  <si>
+    <t>The Undertaker defeats The Right To Censor (Bull Buchanan, Steven Richards, The Goodfather &amp; Val Venis)</t>
+  </si>
+  <si>
+    <t>Smack Down #89</t>
+  </si>
+  <si>
+    <t>29.04.2001</t>
+  </si>
+  <si>
+    <t>Backlash 2001</t>
+  </si>
+  <si>
+    <t>30.04.2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Brothers Of Destruction (Kane &amp; The Undertaker)  Vs. The Two Man Power-Trip (Steve Austin &amp; Triple H) </t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Steve Austin</t>
+  </si>
+  <si>
+    <t>01.05.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #90</t>
+  </si>
+  <si>
+    <t>05.05.2001</t>
+  </si>
+  <si>
+    <t>Insurrextion 2001</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Steve Austin &amp; Triple H</t>
+  </si>
+  <si>
+    <t>15.05.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #92</t>
+  </si>
+  <si>
+    <t>20.05.2001</t>
+  </si>
+  <si>
+    <t>Judgment Day 2001</t>
   </si>
 </sst>
 </file>
@@ -1700,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4471,144 +4669,386 @@
       <c r="A196" s="6">
         <v>195</v>
       </c>
+      <c r="B196" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D196" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="197" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>196</v>
       </c>
-      <c r="D197" s="16"/>
+      <c r="B197" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D197" s="16" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
         <v>197</v>
       </c>
+      <c r="B198" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D198" s="16" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="199" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
         <v>198</v>
       </c>
+      <c r="B199" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D199" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="200" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
         <v>199</v>
       </c>
+      <c r="B200" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D200" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="201" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
         <v>200</v>
       </c>
+      <c r="B201" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D201" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="202" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
         <v>201</v>
       </c>
+      <c r="B202" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D202" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="203" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
         <v>202</v>
       </c>
+      <c r="B203" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D203" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="204" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
         <v>203</v>
       </c>
+      <c r="B204" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D204" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="205" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
         <v>204</v>
       </c>
+      <c r="B205" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D205" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="206" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
         <v>205</v>
       </c>
+      <c r="B206" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D206" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="207" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A207" s="6">
         <v>206</v>
       </c>
+      <c r="B207" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D207" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B208" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D208" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B209" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D209" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B210" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D210" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B211" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D211" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B212" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D212" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B213" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D213" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B214" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D214" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B215" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D215" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B216" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D216" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B217" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D217" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B218" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D218" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B219" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D219" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B220" t="s">
+        <v>481</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D220" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B221" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D221" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B222" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D222" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
         <v>223</v>
       </c>

--- a/Undertaker Matches.xlsx
+++ b/Undertaker Matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Taker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9B4E2E-6496-46C6-BA06-95BD7FC811FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96163EF3-F6EF-4276-8FBA-F5F0A096813F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="1183">
   <si>
     <t>no.</t>
   </si>
@@ -1491,6 +1491,2094 @@
   </si>
   <si>
     <t>Judgment Day 2001</t>
+  </si>
+  <si>
+    <t>12.06.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #96</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Kurt Angle</t>
+  </si>
+  <si>
+    <t>25.06.2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kane &amp; The Undertaker Vs.  The Dudley Boyz (Bubba Ray Dudley &amp; D-Von Dudley) </t>
+  </si>
+  <si>
+    <t>02.07.2001</t>
+  </si>
+  <si>
+    <t>09.07.2001</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Albert </t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Diamond Dallas Page</t>
+  </si>
+  <si>
+    <t>10.07.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #100</t>
+  </si>
+  <si>
+    <t>Kurt Angle &amp; The Undertaker Vs. Diamond Dallas Page &amp; Shane McMahon </t>
+  </si>
+  <si>
+    <t>16.07.2001</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker  Vs. Diamond Dallas Page &amp; Rhyno</t>
+  </si>
+  <si>
+    <t>17.07.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #101</t>
+  </si>
+  <si>
+    <t>Kane, Tajiri &amp; The Undertaker Vs. Tazz &amp; The Dudley Boyz (Bubba Ray Dudley &amp; D-Von Dudley)</t>
+  </si>
+  <si>
+    <t>22.07.2001</t>
+  </si>
+  <si>
+    <t>Invasion 2001</t>
+  </si>
+  <si>
+    <t>23.07.2001</t>
+  </si>
+  <si>
+    <t>Chris Jericho, Kane, Kurt Angle, Steve Austin &amp; The Undertaker Vs. Booker T, Diamond Dallas Page, Rhyno &amp; The Dudley Boyz (Bubba Ray Dudley &amp; D-Von Dudley)</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Rhyno</t>
+  </si>
+  <si>
+    <t>30.07.2001</t>
+  </si>
+  <si>
+    <t> Kane &amp; The Undertaker Vs. The Dudley Boyz (Bubba Ray Dudley &amp; D-Von Dudley)</t>
+  </si>
+  <si>
+    <t>31.07.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #103</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Booker T</t>
+  </si>
+  <si>
+    <t>07.08.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #104</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker Vs. Chuck Palumbo &amp; Sean O'Haire</t>
+  </si>
+  <si>
+    <t>13.08.2001</t>
+  </si>
+  <si>
+    <t>19.08.2001</t>
+  </si>
+  <si>
+    <t>Summer Slam 2001</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker (c) defeat Christian &amp; Edge</t>
+  </si>
+  <si>
+    <t>27.08.2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kane &amp; The Undertaker Vs Diamond Dallas Page &amp; Kanyon </t>
+  </si>
+  <si>
+    <t>21.08.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #106</t>
+  </si>
+  <si>
+    <t>28.08.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #107</t>
+  </si>
+  <si>
+    <t>03.09.2001</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Test</t>
+  </si>
+  <si>
+    <t>10.09.2001</t>
+  </si>
+  <si>
+    <t>17.09.2001</t>
+  </si>
+  <si>
+    <t>23.09.2001</t>
+  </si>
+  <si>
+    <t>Unforgiven 2001</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker Vs. KroniK (Brian Adams &amp; Bryan Clarke)</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker Vs. The Dudley Boyz (Bubba Ray Dudley &amp; D-Von Dudley)</t>
+  </si>
+  <si>
+    <t>24.09.2001</t>
+  </si>
+  <si>
+    <t>Bradshaw, Kane &amp; The Undertaker Vs. Test &amp; The Dudley Boyz (Bubba Ray Dudley &amp; D-Von Dudley)</t>
+  </si>
+  <si>
+    <t>25.09.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #111</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker Vs. Booker T &amp; Test</t>
+  </si>
+  <si>
+    <t>01.10.2001</t>
+  </si>
+  <si>
+    <t>Chris Jericho, Kane &amp; The Undertaker  Vs. Booker T, Rob Van Dam &amp; Test</t>
+  </si>
+  <si>
+    <t>15.10.2001</t>
+  </si>
+  <si>
+    <t>Kurt Angle &amp; The Undertaker Vs. Booker T &amp; Steve Austin</t>
+  </si>
+  <si>
+    <t>16.10.2001</t>
+  </si>
+  <si>
+    <t>Booker T &amp; Test defeat Kane &amp; The Undertaker (9:28)</t>
+  </si>
+  <si>
+    <t>Smack Down #114</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Booker T</t>
+  </si>
+  <si>
+    <t>21.10.2001</t>
+  </si>
+  <si>
+    <t>No Mercy 2001</t>
+  </si>
+  <si>
+    <t>22.10.2001</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker Vs. Booker T &amp; Test</t>
+  </si>
+  <si>
+    <t>29.10.2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kane &amp; The Undertaker Vs. The Dudley Boyz (Bubba Ray Dudley &amp; D-Von Dudley) </t>
+  </si>
+  <si>
+    <t>30.10.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #116</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Steve Austin</t>
+  </si>
+  <si>
+    <t>05.11.2001</t>
+  </si>
+  <si>
+    <t>06.11.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #117</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Kurt Angle &amp; Steve Austin</t>
+  </si>
+  <si>
+    <t>12.11.2001</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Rob Van Dam</t>
+  </si>
+  <si>
+    <t>13.11.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #118</t>
+  </si>
+  <si>
+    <t>18.11.2001</t>
+  </si>
+  <si>
+    <t>Survivor Series 2001</t>
+  </si>
+  <si>
+    <t>Chris Jericho, Kane, The Big Show, The Rock &amp; The Undertaker Vs. Booker T, Kurt Angle, Rob Van Dam, Shane McMahon &amp; Steve Austin</t>
+  </si>
+  <si>
+    <t>20.11.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #119</t>
+  </si>
+  <si>
+    <t>27.11.2001</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Tazz</t>
+  </si>
+  <si>
+    <t>Smack Down #120</t>
+  </si>
+  <si>
+    <t>Smack Down #121</t>
+  </si>
+  <si>
+    <t>04.12.2001</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Bradshaw</t>
+  </si>
+  <si>
+    <t>09.12.2001</t>
+  </si>
+  <si>
+    <t>Vengance 2001</t>
+  </si>
+  <si>
+    <t>10.12.2001</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Spike Dudely</t>
+  </si>
+  <si>
+    <t>11.12.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #122</t>
+  </si>
+  <si>
+    <t>Chris Jericho &amp; The Undertaker Vs. Rob Van Dam &amp; The Rock </t>
+  </si>
+  <si>
+    <t>17.12.2001</t>
+  </si>
+  <si>
+    <t>18.12.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #123</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Jeff Hardy</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Matt Hardy</t>
+  </si>
+  <si>
+    <t>22.12.2001</t>
+  </si>
+  <si>
+    <t>Smack Down #124</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Tajiri</t>
+  </si>
+  <si>
+    <t>03.01.2002</t>
+  </si>
+  <si>
+    <t>Smack Down #125</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. The Big Show</t>
+  </si>
+  <si>
+    <t>20.01.2002</t>
+  </si>
+  <si>
+    <t>Royal Rumble 2002</t>
+  </si>
+  <si>
+    <t>29.01.2002</t>
+  </si>
+  <si>
+    <t>Smack Down #129</t>
+  </si>
+  <si>
+    <t>Kurt Angle &amp; The Undertaker Vs. The Rock &amp; Triple H </t>
+  </si>
+  <si>
+    <t>04.02.2002</t>
+  </si>
+  <si>
+    <t>Chris Jericho &amp; The Undertaker Vs. Steve Austin &amp; The Rock</t>
+  </si>
+  <si>
+    <t>05.02.2002</t>
+  </si>
+  <si>
+    <t>Smack Down #130</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Maven</t>
+  </si>
+  <si>
+    <t>11.02.2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Steve Austin</t>
+  </si>
+  <si>
+    <t>12.02.2002</t>
+  </si>
+  <si>
+    <t>Maven &amp; Triple H Vs. Kurt Angle &amp; The Undertaker</t>
+  </si>
+  <si>
+    <t>Smack Down #131</t>
+  </si>
+  <si>
+    <t>17.02.2002</t>
+  </si>
+  <si>
+    <t>No Way Out 2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. The Rock</t>
+  </si>
+  <si>
+    <t>Smack Down #132</t>
+  </si>
+  <si>
+    <t>Smack Down #133</t>
+  </si>
+  <si>
+    <t>Smack Down #134</t>
+  </si>
+  <si>
+    <t>Smack Down #135</t>
+  </si>
+  <si>
+    <t>19.02.2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Triple H</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Al Snow</t>
+  </si>
+  <si>
+    <t>26.02.2002</t>
+  </si>
+  <si>
+    <t>07.03.2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Al Snow &amp; Maven</t>
+  </si>
+  <si>
+    <t>12.03.2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. David Flair</t>
+  </si>
+  <si>
+    <t>17.03.2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Ric Flair</t>
+  </si>
+  <si>
+    <t>Wrestlemania X-8</t>
+  </si>
+  <si>
+    <t>08.04.2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Rob Van Dam</t>
+  </si>
+  <si>
+    <t>15.04.2002</t>
+  </si>
+  <si>
+    <t>The nWo (Scott Hall &amp; X-Pac) &amp; The Undertaker Vs. Bradshaw &amp; Steve Austin</t>
+  </si>
+  <si>
+    <t>21.04.2002</t>
+  </si>
+  <si>
+    <t>Backlash 2002</t>
+  </si>
+  <si>
+    <t>04.05.2002</t>
+  </si>
+  <si>
+    <t>Insurrextion 2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Judgment Day 2002</t>
+  </si>
+  <si>
+    <t>19.05.2002</t>
+  </si>
+  <si>
+    <t>20.05.2002</t>
+  </si>
+  <si>
+    <t>28.05.2002</t>
+  </si>
+  <si>
+    <t>Smack Down #146</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Randy Orton</t>
+  </si>
+  <si>
+    <t>03.06.2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Tommy Dreamer</t>
+  </si>
+  <si>
+    <t>11.06.2002</t>
+  </si>
+  <si>
+    <t>Smack Down #148</t>
+  </si>
+  <si>
+    <t>17.06.2002</t>
+  </si>
+  <si>
+    <t>18.06.2002</t>
+  </si>
+  <si>
+    <t>Smack Down #149</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Kurt Angle</t>
+  </si>
+  <si>
+    <t>23.06.2002</t>
+  </si>
+  <si>
+    <t>King Of The Ring 2002</t>
+  </si>
+  <si>
+    <t>24.06.2002</t>
+  </si>
+  <si>
+    <t>01.07.2002</t>
+  </si>
+  <si>
+    <t>02.07.2002</t>
+  </si>
+  <si>
+    <t>Smack Down #151</t>
+  </si>
+  <si>
+    <t>Smack Down #152</t>
+  </si>
+  <si>
+    <t>09.07.2002</t>
+  </si>
+  <si>
+    <t> Kurt Angle &amp; The Undertaker Vs. Triple H</t>
+  </si>
+  <si>
+    <t>John Cena &amp; The Undertaker Vs.Chris Jericho &amp; Kurt Angle</t>
+  </si>
+  <si>
+    <t>15.07.2002</t>
+  </si>
+  <si>
+    <t>Brock Lesnar &amp; The Undertaker defeat Ric Flair &amp; Rob Van Dam</t>
+  </si>
+  <si>
+    <t>21.07.2002</t>
+  </si>
+  <si>
+    <t>Vengance 2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. The Rock Vs. Kurt Angle</t>
+  </si>
+  <si>
+    <t>29.07.2002</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Christopher Nowinski</t>
+  </si>
+  <si>
+    <t>12.08.2002</t>
+  </si>
+  <si>
+    <t>Booker T, Goldust, The Rock &amp; The Undertaker  Vs. The Un-Americans (Christian, Lance Storm &amp; Test) &amp; Triple H  </t>
+  </si>
+  <si>
+    <t>19.08.2002</t>
+  </si>
+  <si>
+    <t>Booker T, Goldust &amp; The Undertaker Vs. The Un-Americans (Christian, Lance Storm &amp; Test)</t>
+  </si>
+  <si>
+    <t>25.08.2002</t>
+  </si>
+  <si>
+    <t>Summer Slam 2002</t>
+  </si>
+  <si>
+    <t>26.08.2002</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Test</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Triple H</t>
+  </si>
+  <si>
+    <t>27.08.2002</t>
+  </si>
+  <si>
+    <t>Smack Down #159</t>
+  </si>
+  <si>
+    <t>Smack Down #160</t>
+  </si>
+  <si>
+    <t>Smack Down #161</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. Kurt Angle Vs. Chris Benoit</t>
+  </si>
+  <si>
+    <t>03.09.2002</t>
+  </si>
+  <si>
+    <t>Edge, Rikishi &amp; The Undertaker Vs. Chris Benoit, Eddie Guerrero &amp; Kurt Angle </t>
+  </si>
+  <si>
+    <t>10.09.2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Undertaker Vs. Matt Hardy Version 1.0 </t>
+  </si>
+  <si>
+    <t>22.09.2002</t>
+  </si>
+  <si>
+    <t>Unforgiven 2002</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Brock Lesnar</t>
+  </si>
+  <si>
+    <t>24.09.2002</t>
+  </si>
+  <si>
+    <t>Smack Down #163</t>
+  </si>
+  <si>
+    <t>Smack Down #164</t>
+  </si>
+  <si>
+    <t>01.10.2002</t>
+  </si>
+  <si>
+    <t>20.10.2002</t>
+  </si>
+  <si>
+    <t>No Mercy 2002</t>
+  </si>
+  <si>
+    <t>19.01.2003</t>
+  </si>
+  <si>
+    <t>Royal Rumble 2003</t>
+  </si>
+  <si>
+    <t>21.01.2003</t>
+  </si>
+  <si>
+    <t>Smack Down #180</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. The A-Train</t>
+  </si>
+  <si>
+    <t>23.02.2003</t>
+  </si>
+  <si>
+    <t>No Way Out 2003</t>
+  </si>
+  <si>
+    <t>04.03.2003</t>
+  </si>
+  <si>
+    <t>Smack Down #186</t>
+  </si>
+  <si>
+    <t>18.03.2003</t>
+  </si>
+  <si>
+    <t>Smack Down #188</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Bill DeMott</t>
+  </si>
+  <si>
+    <t>30.03.2003</t>
+  </si>
+  <si>
+    <t>Wrestlemania 19</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. The A-Train &amp; The Big Show</t>
+  </si>
+  <si>
+    <t>01.04.2003</t>
+  </si>
+  <si>
+    <t>Smack Down #190</t>
+  </si>
+  <si>
+    <t>Smack Down #191</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Rey Mysterio</t>
+  </si>
+  <si>
+    <t>08.04.2003</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. John Cena</t>
+  </si>
+  <si>
+    <t>27.05.2003</t>
+  </si>
+  <si>
+    <t>Smack Down #198</t>
+  </si>
+  <si>
+    <t>Smack Down #199</t>
+  </si>
+  <si>
+    <t>Brock Lesnar &amp; The Undertaker Vs. The Big Show &amp; The FBI (Chuck Palumbo &amp; Johnny Stamboli)   </t>
+  </si>
+  <si>
+    <t>03.06.2003</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Chuck Palumbo</t>
+  </si>
+  <si>
+    <t>Smack Down #200</t>
+  </si>
+  <si>
+    <t>Smack Down #201</t>
+  </si>
+  <si>
+    <t>Smack Down #202</t>
+  </si>
+  <si>
+    <t>10.06.2003</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Johnny Stamboli</t>
+  </si>
+  <si>
+    <t>17.06.2003</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Nunzio</t>
+  </si>
+  <si>
+    <t>24.06.2003</t>
+  </si>
+  <si>
+    <t>The APA (Bradshaw &amp; Ron Simmons) &amp; The Undertaker Vs. The FBI (Chuck Palumbo, Johnny Stamboli &amp; Nunzio)</t>
+  </si>
+  <si>
+    <t>27.07.2003</t>
+  </si>
+  <si>
+    <t>Vengance 2003</t>
+  </si>
+  <si>
+    <t>05.08.2003</t>
+  </si>
+  <si>
+    <t>Smack Down #208</t>
+  </si>
+  <si>
+    <t>Smack Down #209</t>
+  </si>
+  <si>
+    <t>Smack Down #210</t>
+  </si>
+  <si>
+    <t>12.08.2003</t>
+  </si>
+  <si>
+    <t>19.08.2003</t>
+  </si>
+  <si>
+    <t> Orlando Jordan &amp; The Undertaker Vs. John Cena &amp; The A-Train</t>
+  </si>
+  <si>
+    <t>24.08.2003</t>
+  </si>
+  <si>
+    <t>Summer Slam 2003</t>
+  </si>
+  <si>
+    <t>26.08.2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Undertaker Vs. The Big Show Vs. Brock Lesnar </t>
+  </si>
+  <si>
+    <t>02.09.2003</t>
+  </si>
+  <si>
+    <t>Smack Down #212</t>
+  </si>
+  <si>
+    <t>30.09.2003</t>
+  </si>
+  <si>
+    <t>Smack Down #216</t>
+  </si>
+  <si>
+    <t>Smack Down #217</t>
+  </si>
+  <si>
+    <t>Kurt Angle &amp; The Undertaker Vs. Brock Lesnar &amp; John Cena </t>
+  </si>
+  <si>
+    <t>07.10.2003</t>
+  </si>
+  <si>
+    <t>19.10.2003</t>
+  </si>
+  <si>
+    <t>No Mercy 2003</t>
+  </si>
+  <si>
+    <t>21.10.2003</t>
+  </si>
+  <si>
+    <t>Smack Down #219</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Brock Lesnar &amp; The Big Show</t>
+  </si>
+  <si>
+    <t>16.11.2003</t>
+  </si>
+  <si>
+    <t>Survivor Series 2003</t>
+  </si>
+  <si>
+    <t>14.03.2004</t>
+  </si>
+  <si>
+    <t>Wrestlemania 20</t>
+  </si>
+  <si>
+    <t>04.05.2004</t>
+  </si>
+  <si>
+    <t>Smack Down #247</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. The FBI (Johnny Stamboli &amp; Nunzio)</t>
+  </si>
+  <si>
+    <t>16.05.2004</t>
+  </si>
+  <si>
+    <t>Judgment Day 2004</t>
+  </si>
+  <si>
+    <t>01.06.2004</t>
+  </si>
+  <si>
+    <t>Smack Down #251</t>
+  </si>
+  <si>
+    <t>22.06.2004</t>
+  </si>
+  <si>
+    <t>Smack Down #254</t>
+  </si>
+  <si>
+    <t>27.06.2004</t>
+  </si>
+  <si>
+    <t>The Great American Bash 2004</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. The Dudley Boyz (Bubba Ray Dudley &amp; D-Von Dudley)</t>
+  </si>
+  <si>
+    <t>10.08.2004</t>
+  </si>
+  <si>
+    <t>Smack Down #261</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Orlando Jordan</t>
+  </si>
+  <si>
+    <t>15.08.2004</t>
+  </si>
+  <si>
+    <t>Summer Slam 2004</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. John Bradshaw Layfield</t>
+  </si>
+  <si>
+    <t>24.08.2004</t>
+  </si>
+  <si>
+    <t>Smack Down #263</t>
+  </si>
+  <si>
+    <t>21.09.2004</t>
+  </si>
+  <si>
+    <t>Smack Down #267</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Gangrel &amp; Viscera</t>
+  </si>
+  <si>
+    <t>03.10.2004</t>
+  </si>
+  <si>
+    <t>No Mercy 2004</t>
+  </si>
+  <si>
+    <t>14.11.2004</t>
+  </si>
+  <si>
+    <t>Survivor Series 2004</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Heidenreich</t>
+  </si>
+  <si>
+    <t>30.11.2004</t>
+  </si>
+  <si>
+    <t>Smack Down #277</t>
+  </si>
+  <si>
+    <t>Smack Down #278</t>
+  </si>
+  <si>
+    <t>07.12.2004</t>
+  </si>
+  <si>
+    <t> The Undertaker Vs. John Bradshaw Layfield &amp; Orlando Jordan </t>
+  </si>
+  <si>
+    <t>Booker T, Eddie Guerrero &amp; The Undertaker Vs. The Cabinet (Danny Basham, Doug Basham, John Bradshaw Layfield &amp; Orlando Jordan)</t>
+  </si>
+  <si>
+    <t>12.12.2004</t>
+  </si>
+  <si>
+    <t>Armageddon 2004</t>
+  </si>
+  <si>
+    <t>18.12.2004</t>
+  </si>
+  <si>
+    <t>Smack Down #280</t>
+  </si>
+  <si>
+    <t>Smack Down #282</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. John Bradshaw Layfield Vs.Booker T Vs. Eddie Guerrero</t>
+  </si>
+  <si>
+    <t>04.01.2005</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Heidenreich &amp; Paul Heyman </t>
+  </si>
+  <si>
+    <t>30.01.2005</t>
+  </si>
+  <si>
+    <t>Royal Rumble 2005</t>
+  </si>
+  <si>
+    <t>31.01.2005</t>
+  </si>
+  <si>
+    <t>Smack Down #286</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Rene Dupree</t>
+  </si>
+  <si>
+    <t>15.02.2005</t>
+  </si>
+  <si>
+    <t>Smack Down #288</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Mark Jindrak</t>
+  </si>
+  <si>
+    <t>20.02.2005</t>
+  </si>
+  <si>
+    <t>No Way Out 2005</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Luther Reigns</t>
+  </si>
+  <si>
+    <t>22.02.2005</t>
+  </si>
+  <si>
+    <t>Smack Down #289</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Luther Reigns &amp; Mark Jindrak</t>
+  </si>
+  <si>
+    <t>03.04.2005</t>
+  </si>
+  <si>
+    <t>Wrestlemania 21</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Randy Orton</t>
+  </si>
+  <si>
+    <t>14.06.2005</t>
+  </si>
+  <si>
+    <t>Smack Down #305</t>
+  </si>
+  <si>
+    <t>Smack Down #307</t>
+  </si>
+  <si>
+    <t>Smack Down #308</t>
+  </si>
+  <si>
+    <t>28.06.2005</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. John Bradshaw Layfield Vs. Booker T Vs. Chris Benoit Vs. Christian Vs. Muhammad Hassan</t>
+  </si>
+  <si>
+    <t>04.07.2005</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Daivari</t>
+  </si>
+  <si>
+    <t>24.07.2005</t>
+  </si>
+  <si>
+    <t>The Great American Bash 2005</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Muhammad Hassan</t>
+  </si>
+  <si>
+    <t>26.07.2005</t>
+  </si>
+  <si>
+    <t>Smack Down #311</t>
+  </si>
+  <si>
+    <t>21.08.2005</t>
+  </si>
+  <si>
+    <t>Summer Slam 2005</t>
+  </si>
+  <si>
+    <t>Smack Down #318</t>
+  </si>
+  <si>
+    <t>Smack Down #320</t>
+  </si>
+  <si>
+    <t>12.09.2005</t>
+  </si>
+  <si>
+    <t>27.09.2005</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Bob Orton</t>
+  </si>
+  <si>
+    <t>09.10.2005</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Randy Orton &amp; Bob Orton</t>
+  </si>
+  <si>
+    <t>18.12.2005</t>
+  </si>
+  <si>
+    <t>Armageddon 2005</t>
+  </si>
+  <si>
+    <t>07.02.2006</t>
+  </si>
+  <si>
+    <t>Smack Down #339</t>
+  </si>
+  <si>
+    <t>Smack Down #340</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Mark Henry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.02.2006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kurt Angle &amp; The Undertaker Vs. MNM (Mercury &amp; Nitro) &amp; Mark Henry</t>
+  </si>
+  <si>
+    <t>19.02.2006</t>
+  </si>
+  <si>
+    <t>No Way Out 2006</t>
+  </si>
+  <si>
+    <t>Smack Down #342</t>
+  </si>
+  <si>
+    <t>27.02.2006</t>
+  </si>
+  <si>
+    <t>02.04.2006</t>
+  </si>
+  <si>
+    <t>Wrestlemania 22</t>
+  </si>
+  <si>
+    <t>04.04.2006</t>
+  </si>
+  <si>
+    <t>Smack Down #347</t>
+  </si>
+  <si>
+    <t>21.05.2006</t>
+  </si>
+  <si>
+    <t>Judgment Day 2006</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. The Great Khali</t>
+  </si>
+  <si>
+    <t>18.07.2006</t>
+  </si>
+  <si>
+    <t>ECW #6</t>
+  </si>
+  <si>
+    <t>23.07.2006</t>
+  </si>
+  <si>
+    <t>The Great American Bash 2006</t>
+  </si>
+  <si>
+    <t>31.07.2006</t>
+  </si>
+  <si>
+    <t>Smack Down #364</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. King Booker</t>
+  </si>
+  <si>
+    <t>15.08.2006</t>
+  </si>
+  <si>
+    <t>Smack Down #366</t>
+  </si>
+  <si>
+    <t>18.09.2006</t>
+  </si>
+  <si>
+    <t>Smack Down #371</t>
+  </si>
+  <si>
+    <t>Smack Down #381</t>
+  </si>
+  <si>
+    <t>08.10.2006</t>
+  </si>
+  <si>
+    <t>No Mercy 2005</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Mr.Kennedy</t>
+  </si>
+  <si>
+    <t>09.10.2006</t>
+  </si>
+  <si>
+    <t>15.10.2006</t>
+  </si>
+  <si>
+    <t>Smack Down #375</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Gregory Helms</t>
+  </si>
+  <si>
+    <t>29.10.2006</t>
+  </si>
+  <si>
+    <t> Kane &amp; The Undertaker Vs. Montel Vontavious Porter &amp; Mr. Kennedy</t>
+  </si>
+  <si>
+    <t>Smack Down #377</t>
+  </si>
+  <si>
+    <t>26.11.2006</t>
+  </si>
+  <si>
+    <t>Survivor Series 2006</t>
+  </si>
+  <si>
+    <t>28.11.2006</t>
+  </si>
+  <si>
+    <t>Smack Down #391</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Montel Vontavious Porter</t>
+  </si>
+  <si>
+    <t>07.12.2006</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Johnny Nitro</t>
+  </si>
+  <si>
+    <t>12.12.2006</t>
+  </si>
+  <si>
+    <t>Smack Down #383</t>
+  </si>
+  <si>
+    <t>17.12.2006</t>
+  </si>
+  <si>
+    <t>Armageddon 2006</t>
+  </si>
+  <si>
+    <t>19.12.2006</t>
+  </si>
+  <si>
+    <t>Smack Down #384</t>
+  </si>
+  <si>
+    <t>The Undertaker &amp; Kane Vs. Finlay &amp; King Booker</t>
+  </si>
+  <si>
+    <t>09.01.2007</t>
+  </si>
+  <si>
+    <t>Smack Down #386</t>
+  </si>
+  <si>
+    <t>Smack Down #387</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. The Miz</t>
+  </si>
+  <si>
+    <t>16.01.2007</t>
+  </si>
+  <si>
+    <t>28.01.2007</t>
+  </si>
+  <si>
+    <t>Royal Rumble 2007</t>
+  </si>
+  <si>
+    <t>06.02.2007</t>
+  </si>
+  <si>
+    <t>Smack Down #390</t>
+  </si>
+  <si>
+    <t>Smack Down #400</t>
+  </si>
+  <si>
+    <t>12.02.2007</t>
+  </si>
+  <si>
+    <t>Batista, John Cena, Shawn Michaels &amp; The Undertaker Vs. Edge, Montel Vontavious Porter, Mr. Kennedy &amp; Randy Orton</t>
+  </si>
+  <si>
+    <t>13.02.2007</t>
+  </si>
+  <si>
+    <t>Smack Down #401</t>
+  </si>
+  <si>
+    <t>Batista &amp; The Undertaker Vs. Rated-RKO</t>
+  </si>
+  <si>
+    <t>18.02.2007</t>
+  </si>
+  <si>
+    <t>No Way Out 2007</t>
+  </si>
+  <si>
+    <t>Batista &amp; The Undertaker Vs. John Cena &amp; Shawn Michaels</t>
+  </si>
+  <si>
+    <t>06.03.2007</t>
+  </si>
+  <si>
+    <t>Smack Down #394</t>
+  </si>
+  <si>
+    <t>Smack Down #395</t>
+  </si>
+  <si>
+    <t>Smack Down #396</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Finlay</t>
+  </si>
+  <si>
+    <t>13.03.2007</t>
+  </si>
+  <si>
+    <t>20.03.2007</t>
+  </si>
+  <si>
+    <t>Batista &amp; The Undertaker Vs.  Finlay &amp; King Booker</t>
+  </si>
+  <si>
+    <t>26.03.2007</t>
+  </si>
+  <si>
+    <t>01.04.2007</t>
+  </si>
+  <si>
+    <t>Wrestlemania 23</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Batista</t>
+  </si>
+  <si>
+    <t>10.04.2007</t>
+  </si>
+  <si>
+    <t>Smack Down #399</t>
+  </si>
+  <si>
+    <t>Batista &amp; The Undertaker Vs. Finlay &amp; Mr.Kennedy</t>
+  </si>
+  <si>
+    <t>17.04.2007</t>
+  </si>
+  <si>
+    <t>24.04.2007</t>
+  </si>
+  <si>
+    <t>29.04.2007</t>
+  </si>
+  <si>
+    <t>Backlash 2007</t>
+  </si>
+  <si>
+    <t>08.05.2007</t>
+  </si>
+  <si>
+    <t>Smack Down #403</t>
+  </si>
+  <si>
+    <t>16.09.2007</t>
+  </si>
+  <si>
+    <t>Unforgiven 2007</t>
+  </si>
+  <si>
+    <t>25.09.2007</t>
+  </si>
+  <si>
+    <t>Smack Down #423</t>
+  </si>
+  <si>
+    <t>Smack Down #425</t>
+  </si>
+  <si>
+    <t>Smack Down #426</t>
+  </si>
+  <si>
+    <t>09.10.2007</t>
+  </si>
+  <si>
+    <t>Kane &amp; The Undertaker Vs. Matt Hardy &amp; Montel Vontavious Porter</t>
+  </si>
+  <si>
+    <t>16.10.2007</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Jamie Noble</t>
+  </si>
+  <si>
+    <t>28.10.2007</t>
+  </si>
+  <si>
+    <t>Cyber Sunday 2007</t>
+  </si>
+  <si>
+    <t>30.10.2007</t>
+  </si>
+  <si>
+    <t>Smack Down #428</t>
+  </si>
+  <si>
+    <t>Smack Down #429</t>
+  </si>
+  <si>
+    <t>Batista &amp; The Undertaker Vs. Mark Henry &amp; The Great Khali</t>
+  </si>
+  <si>
+    <t>06.11.2007</t>
+  </si>
+  <si>
+    <t>12.11.2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark Henry &amp; The Great Khali Vs. Lance Cade &amp; Trevor Murdoch</t>
+  </si>
+  <si>
+    <t>18.11.2007</t>
+  </si>
+  <si>
+    <t>Survivor Series 2007</t>
+  </si>
+  <si>
+    <t>11.12.2007</t>
+  </si>
+  <si>
+    <t>Smack Down #434</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Undertaker Vs. Big Daddy V &amp; Mark Henry</t>
+  </si>
+  <si>
+    <t>16.12.2007</t>
+  </si>
+  <si>
+    <t>Armageddon 2007</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Batista Vs. Batista</t>
+  </si>
+  <si>
+    <t>30.12.2007</t>
+  </si>
+  <si>
+    <t>Smack Down #437</t>
+  </si>
+  <si>
+    <t>Smack Down #438</t>
+  </si>
+  <si>
+    <t>08.01.2008</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Mark Henry &amp; Matt Striker</t>
+  </si>
+  <si>
+    <t>22.01.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #440</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Big Daddy V</t>
+  </si>
+  <si>
+    <t>27.01.2008</t>
+  </si>
+  <si>
+    <t>Royal Rumble 2008</t>
+  </si>
+  <si>
+    <t>29.01.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #441</t>
+  </si>
+  <si>
+    <t>The Brothers Of Destruction (Kane &amp; The Undertaker) Vs. Big Daddy V &amp; Mark Henry</t>
+  </si>
+  <si>
+    <t>05.02.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batista, Finlay &amp; The Undertaker Vs. Big Daddy V, Montel Vontavious Porter &amp; The Great Khali </t>
+  </si>
+  <si>
+    <t>06.02.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #443</t>
+  </si>
+  <si>
+    <t>17.02.2008</t>
+  </si>
+  <si>
+    <t>No Way Out 2008</t>
+  </si>
+  <si>
+    <t>Elimination Chamber Match</t>
+  </si>
+  <si>
+    <t>26.02.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #445</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Zack Ryder</t>
+  </si>
+  <si>
+    <t>04.03.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #446</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs.Curt Hawkins, Edge &amp; Zack Ryder</t>
+  </si>
+  <si>
+    <t>10.03.2008</t>
+  </si>
+  <si>
+    <t>18.03.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #448</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Chavo Guerrero</t>
+  </si>
+  <si>
+    <t>30.03.2008</t>
+  </si>
+  <si>
+    <t>Wrestlemania 24</t>
+  </si>
+  <si>
+    <t>01.04.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #450</t>
+  </si>
+  <si>
+    <t>08.04.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #451</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Festus</t>
+  </si>
+  <si>
+    <t>15.04.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Brothers Of Destruction (Kane &amp; The Undertaker) Vs. John Morrison &amp; The Miz </t>
+  </si>
+  <si>
+    <t>ECW #97</t>
+  </si>
+  <si>
+    <t>21.04.2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John Cena, Kane, The Undertaker &amp; Triple H Vs. Chavo Guerrero, Edge, John Bradshaw Layfield &amp; Randy Orton </t>
+  </si>
+  <si>
+    <t>22.04.2008</t>
+  </si>
+  <si>
+    <t>27.04.2008</t>
+  </si>
+  <si>
+    <t>Backlash 2008</t>
+  </si>
+  <si>
+    <t>13.05.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #453</t>
+  </si>
+  <si>
+    <t>Smack Down #456</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Curt Hawkins, Edge, Vickie Guerrero &amp; Zack Ryder</t>
+  </si>
+  <si>
+    <t>18.05.2008</t>
+  </si>
+  <si>
+    <t>Judgment Day 2008</t>
+  </si>
+  <si>
+    <t>20.05.2008</t>
+  </si>
+  <si>
+    <t>01.06.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #457</t>
+  </si>
+  <si>
+    <t>One Night Stand 2008</t>
+  </si>
+  <si>
+    <t>17.08.2008</t>
+  </si>
+  <si>
+    <t>Summer Slam 2008</t>
+  </si>
+  <si>
+    <t>05.10.2008</t>
+  </si>
+  <si>
+    <t>No Mercy 2008</t>
+  </si>
+  <si>
+    <t>14.10.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #478</t>
+  </si>
+  <si>
+    <t>21.10.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #479</t>
+  </si>
+  <si>
+    <t>26.10.2008</t>
+  </si>
+  <si>
+    <t>Cyber Sunday 2008</t>
+  </si>
+  <si>
+    <t>28.10.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #480</t>
+  </si>
+  <si>
+    <t>03.11.2008</t>
+  </si>
+  <si>
+    <t>04.11.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #481</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Vladimir Kozlov</t>
+  </si>
+  <si>
+    <t>11.11.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #482</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Jeff Hardy</t>
+  </si>
+  <si>
+    <t>23.11.2008</t>
+  </si>
+  <si>
+    <t>Survivor Series 2008</t>
+  </si>
+  <si>
+    <t>25.11.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #485</t>
+  </si>
+  <si>
+    <t>30.12.2008</t>
+  </si>
+  <si>
+    <t>Smack Down #490</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Shelton Benjamin</t>
+  </si>
+  <si>
+    <t>13.01.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #492</t>
+  </si>
+  <si>
+    <t>25.01.2009</t>
+  </si>
+  <si>
+    <t>Royal Rumble 2009</t>
+  </si>
+  <si>
+    <t>27.01.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #493</t>
+  </si>
+  <si>
+    <t>The Undertaker &amp; Triple H defeat Edge &amp; The Big Show</t>
+  </si>
+  <si>
+    <t>Smack Down #494</t>
+  </si>
+  <si>
+    <t>09.02.2009</t>
+  </si>
+  <si>
+    <t>10.02.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #495</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Triple H Vs. The Big Show Vs. Vladimir Kozlov</t>
+  </si>
+  <si>
+    <t>15.02.2009</t>
+  </si>
+  <si>
+    <t>No Way Out 2009</t>
+  </si>
+  <si>
+    <t>17.02.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #497</t>
+  </si>
+  <si>
+    <t>03.03.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #499</t>
+  </si>
+  <si>
+    <t>16.03.2009</t>
+  </si>
+  <si>
+    <t>Shawn Michaels &amp; The Undertaker Vs. John Bradshaw Layfield &amp; Vladimir Kozlov</t>
+  </si>
+  <si>
+    <t>17.03.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #500</t>
+  </si>
+  <si>
+    <t>05.04.2009</t>
+  </si>
+  <si>
+    <t>Wrestlemania 25th Aniversary</t>
+  </si>
+  <si>
+    <t>14.04.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #504</t>
+  </si>
+  <si>
+    <t>21.04.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #505</t>
+  </si>
+  <si>
+    <t>13.09.2009</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. CM Punk</t>
+  </si>
+  <si>
+    <t>Breaking Point 2009</t>
+  </si>
+  <si>
+    <t>22.09.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #527</t>
+  </si>
+  <si>
+    <t>Smack Down #528</t>
+  </si>
+  <si>
+    <t>29.09.2009</t>
+  </si>
+  <si>
+    <t>D-Generation X (Shawn Michaels &amp; Triple H), John Cena &amp; The Undertaker Vs. CM Punk &amp; Legacy (Cody Rhodes, Randy Orton &amp; Ted DiBiase)</t>
+  </si>
+  <si>
+    <t>04.10.2009</t>
+  </si>
+  <si>
+    <t>Hell In A Cell 2009</t>
+  </si>
+  <si>
+    <t>20.10.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #531</t>
+  </si>
+  <si>
+    <t>25.10.2009</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Batista Vs. CM Punk Vs. Rey Mysterio</t>
+  </si>
+  <si>
+    <t>10.11.2009</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Chris Jericho</t>
+  </si>
+  <si>
+    <t>Smack Down #534</t>
+  </si>
+  <si>
+    <t>16.11.2009</t>
+  </si>
+  <si>
+    <t> John Cena &amp; The Undertaker Vs. Chris Jericho &amp; The Big Show and D-Generation X (Shawn Michaels &amp; Triple H)</t>
+  </si>
+  <si>
+    <t>17.11.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #535</t>
+  </si>
+  <si>
+    <t>Chris Jericho &amp; The Big Show Vs. The Brothers Of Destruction (Kane &amp; The Undertaker)</t>
+  </si>
+  <si>
+    <t>22.11.2009</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Chris Jericho Vs. The Big Show</t>
+  </si>
+  <si>
+    <t>Survivor Series 2009</t>
+  </si>
+  <si>
+    <t>24.11.2009</t>
+  </si>
+  <si>
+    <t>13.12.2009</t>
+  </si>
+  <si>
+    <t>TLC 2009</t>
+  </si>
+  <si>
+    <t>14.12.2009</t>
+  </si>
+  <si>
+    <t>20.12.2009</t>
+  </si>
+  <si>
+    <t>Smack Down #536</t>
+  </si>
+  <si>
+    <t>Smack Down #540</t>
+  </si>
+  <si>
+    <t>31.01.2010</t>
+  </si>
+  <si>
+    <t>Royal Rumble 2010</t>
+  </si>
+  <si>
+    <t>09.02.2010</t>
+  </si>
+  <si>
+    <t>Smack Down #547</t>
+  </si>
+  <si>
+    <t>21.02.2010</t>
+  </si>
+  <si>
+    <t>Elimination Chamber 2010</t>
+  </si>
+  <si>
+    <t>16.03.2010</t>
+  </si>
+  <si>
+    <t>Smack Down #552</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Drew McIntyre</t>
+  </si>
+  <si>
+    <t>28.03.2010</t>
+  </si>
+  <si>
+    <t>Wrestlemania 26</t>
+  </si>
+  <si>
+    <t>19.04.2010</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Jack Swagger</t>
+  </si>
+  <si>
+    <t>17.05.2010</t>
+  </si>
+  <si>
+    <t>25.05.2010</t>
+  </si>
+  <si>
+    <t>Smack Down #562</t>
+  </si>
+  <si>
+    <t>07.09.2010</t>
+  </si>
+  <si>
+    <t>Smack Down #577</t>
+  </si>
+  <si>
+    <t>19.09.2010</t>
+  </si>
+  <si>
+    <t>Night Of Champions 2010</t>
+  </si>
+  <si>
+    <t>01.10.2010</t>
+  </si>
+  <si>
+    <t>Smack Down #580</t>
+  </si>
+  <si>
+    <t>03.10.2010</t>
+  </si>
+  <si>
+    <t>Hell In A Cell 2010</t>
+  </si>
+  <si>
+    <t>24.10.2010</t>
+  </si>
+  <si>
+    <t>Bragging Rights 2010</t>
+  </si>
+  <si>
+    <t>Bragging Rights 2009</t>
+  </si>
+  <si>
+    <t>03.04.2011</t>
+  </si>
+  <si>
+    <t>Wrestlemania 27</t>
+  </si>
+  <si>
+    <t>01.04.2012</t>
+  </si>
+  <si>
+    <t>Wrestlemania 28</t>
+  </si>
+  <si>
+    <t>07.04.2013</t>
+  </si>
+  <si>
+    <t>Wrestlemania 29</t>
+  </si>
+  <si>
+    <t>22.04.2013</t>
+  </si>
+  <si>
+    <t> Team Hell No (Daniel Bryan &amp; Kane) &amp; The Undertaker Vs. The Shield (Dean Ambrose, Roman Reigns &amp; Seth Rollins)</t>
+  </si>
+  <si>
+    <t>23.04.2013</t>
+  </si>
+  <si>
+    <t>Smack Down #714</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Dean Ambrose</t>
+  </si>
+  <si>
+    <t>06.04.2014</t>
+  </si>
+  <si>
+    <t>Wrestlemania 30</t>
+  </si>
+  <si>
+    <t>29.03.2015</t>
+  </si>
+  <si>
+    <t>Wrestlemania 31</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Bray Wyatt</t>
+  </si>
+  <si>
+    <t>23.08.2015</t>
+  </si>
+  <si>
+    <t>Summer Slam 2015</t>
+  </si>
+  <si>
+    <t>25.10.2015</t>
+  </si>
+  <si>
+    <t>Hell In A Cell 2015</t>
+  </si>
+  <si>
+    <t>22.11.2015</t>
+  </si>
+  <si>
+    <t>Survivor Series 2015</t>
+  </si>
+  <si>
+    <t>The Brothers Of Destruction (Kane &amp; The Undertaker) defeat The Wyatt Family (Bray Wyatt &amp; Luke Harper)</t>
+  </si>
+  <si>
+    <t>03.04.2016</t>
+  </si>
+  <si>
+    <t>Wrestlemania 32</t>
+  </si>
+  <si>
+    <t>29.01.2017</t>
+  </si>
+  <si>
+    <t>Royal Rumble 2017</t>
+  </si>
+  <si>
+    <t>02.04.2017</t>
+  </si>
+  <si>
+    <t>Wrestlemania 33</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Roman Reigns</t>
+  </si>
+  <si>
+    <t>08.04.2018</t>
+  </si>
+  <si>
+    <t>Wrestlemania 34</t>
+  </si>
+  <si>
+    <t>27.04.2018</t>
+  </si>
+  <si>
+    <t>Greatest Royal Rumble</t>
+  </si>
+  <si>
+    <t>06.10.2018</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Rusev</t>
+  </si>
+  <si>
+    <t>Super Show-Down 2018</t>
+  </si>
+  <si>
+    <t>02.11.2018</t>
+  </si>
+  <si>
+    <t>Crown Jewel 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Brothers Of Destruction (Kane &amp; The Undertaker) Vs. D-Generation X (Shawn Michaels &amp; Triple H) </t>
+  </si>
+  <si>
+    <t>07.06.2019</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. Goldberg</t>
+  </si>
+  <si>
+    <t>Super Show-Down 2019</t>
+  </si>
+  <si>
+    <t>14.07.2019</t>
+  </si>
+  <si>
+    <t>Extreme Rules 2019</t>
+  </si>
+  <si>
+    <t>Roman Reigns &amp; The Undertaker Vs. Drew McIntyre &amp; Shane McMahon </t>
+  </si>
+  <si>
+    <t>27.02.2020</t>
+  </si>
+  <si>
+    <t>Super Show-Down 2020</t>
+  </si>
+  <si>
+    <t>Gauntlet Match</t>
+  </si>
+  <si>
+    <t>04.04.2020</t>
+  </si>
+  <si>
+    <t>Wrestlemania 36</t>
+  </si>
+  <si>
+    <t>The Undertaker Vs. AJ Styles</t>
   </si>
 </sst>
 </file>
@@ -1896,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E369"/>
+  <dimension ref="A1:E517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="D519" sqref="D519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,7 +3995,7 @@
     <col min="1" max="1" width="4.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="136.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5047,735 +7135,4130 @@
       <c r="A223" s="6">
         <v>222</v>
       </c>
+      <c r="B223" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D223" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="224" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B224" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D224" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B225" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D225" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B226" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D226" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B227" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D227" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B228" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D228" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B229" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D229" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A230" s="6">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B230" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D230" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B231" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D231" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B232" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D232" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B233" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D233" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B234" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D234" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B235" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D235" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B236" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D236" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B237" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D237" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B238" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D238" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B239" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D239" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B240" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D240" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B241" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D241" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B242" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D242" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A243" s="6">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B243" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D243" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A244" s="6">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B244" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D244" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B245" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D245" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B246" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D246" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B247" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D247" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B248" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D248" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B249" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D249" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B250" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D250" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B251" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D251" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B252" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D252" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B253" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D253" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B254" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D254" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B255" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D255" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A256" s="6">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B256" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D256" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A257" s="6">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B257" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D257" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B258" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D258" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B259" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D259" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A260" s="6">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B260" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D260" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B261" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D261" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A262" s="6">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B262" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D262" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B263" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D263" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A264" s="6">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B264" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D264" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B265" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D265" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B266" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D266" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B267" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D267" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B268" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B269" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D269" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A270" s="6">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B270" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D270" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B271" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D271" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A272" s="6">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B272" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D272" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B273" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D273" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B274" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D274" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B275" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D275" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B276" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D276" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B277" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D277" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B278" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D278" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B279" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D279" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B280" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D280" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A281" s="6">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B281" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D281" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B282" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D282" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A283" s="6">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B283" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D283" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A284" s="6">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B284" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D284" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A285" s="6">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B285" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D285" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A286" s="6">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B286" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D286" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A287" s="6">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B287" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D287" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A288" s="6">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B288" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D288" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A289" s="6">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B289" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D289" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A290" s="6">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B290" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D290" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A291" s="6">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B291" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D291" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A292" s="6">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B292" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D292" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A293" s="6">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B293" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D293" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A294" s="6">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B294" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D294" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A295" s="6">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B295" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D295" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A296" s="6">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B296" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D296" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A297" s="6">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B297" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D297" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A298" s="6">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B298" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D298" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A299" s="6">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B299" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D299" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A300" s="6">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B300" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D300" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A301" s="6">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B301" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D301" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A302" s="6">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B302" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D302" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A303" s="6">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B303" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D303" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A304" s="6">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B304" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D304" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A305" s="6">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B305" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D305" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A306" s="6">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B306" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D306" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A307" s="6">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B307" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D307" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A308" s="6">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B308" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D308" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A309" s="6">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B309" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D309" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A310" s="6">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B310" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A311" s="6">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B311" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D311" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A312" s="6">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B312" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D312" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A313" s="6">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B313" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D313" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A314" s="6">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B314" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D314" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A315" s="6">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B315" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D315" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A316" s="6">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B316" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D316" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A317" s="6">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B317" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D317" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A318" s="6">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B318" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D318" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A319" s="6">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B319" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D319" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A320" s="6">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B320" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D320" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A321" s="6">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B321" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D321" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A322" s="6">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B322" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D322" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A323" s="6">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B323" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D323" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A324" s="6">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B324" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D324" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A325" s="6">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B325" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D325" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A326" s="6">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B326" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D326" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A327" s="6">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B327" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D327" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A328" s="6">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B328" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D328" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A329" s="6">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B329" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D329" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A330" s="6">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B330" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D330" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A331" s="6">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B331" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D331" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A332" s="6">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B332" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D332" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A333" s="6">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B333" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D333" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A334" s="6">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B334" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D334" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A335" s="6">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B335" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D335" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A336" s="6">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B336" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D336" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A337" s="6">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B337" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D337" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A338" s="6">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B338" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D338" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A339" s="6">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B339" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D339" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A340" s="6">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B340" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D340" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A341" s="6">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B341" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D341" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A342" s="6">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B342" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D342" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A343" s="6">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B343" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D343" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A344" s="6">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B344" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D344" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A345" s="6">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B345" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D345" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A346" s="6">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B346" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D346" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A347" s="6">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B347" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D347" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A348" s="6">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B348" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D348" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A349" s="6">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B349" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D349" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A350" s="6">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B350" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D350" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A351" s="6">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B351" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D351" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A352" s="6">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B352" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D352" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A353" s="6">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B353" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D353" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A354" s="6">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B354" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D354" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A355" s="6">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B355" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D355" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A356" s="6">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B356" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D356" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A357" s="6">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B357" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D357" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A358" s="6">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B358" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D358" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A359" s="6">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B359" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D359" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A360" s="6">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B360" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D360" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A361" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B361" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D361" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A362" s="6">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B362" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D362" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A363" s="6">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B363" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D363" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A364" s="6">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B364" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D364" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A365" s="6">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B365" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D365" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A366" s="6">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B366" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D366" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A367" s="6">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B367" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D367" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A368" s="6">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B368" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D368" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A369" s="6">
         <v>368</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D369" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A370" s="6">
+        <v>369</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D370" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A371" s="6">
+        <v>370</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D371" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A372" s="6">
+        <v>371</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D372" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A373" s="6">
+        <v>372</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D373" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A374" s="6">
+        <v>373</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D374" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A375" s="6">
+        <v>374</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D375" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A376" s="6">
+        <v>375</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D376" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A377" s="6">
+        <v>376</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D377" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A378" s="6">
+        <v>377</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D378" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A379" s="6">
+        <v>378</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D379" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A380" s="6">
+        <v>379</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D380" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A381" s="6">
+        <v>380</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D381" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A382" s="6">
+        <v>381</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D382" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A383" s="6">
+        <v>382</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D383" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A384" s="6">
+        <v>383</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D384" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A385" s="6">
+        <v>384</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D385" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A386" s="6">
+        <v>385</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D386" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A387" s="6">
+        <v>386</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D387" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A388" s="6">
+        <v>387</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D388" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A389" s="6">
+        <v>388</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D389" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A390" s="6">
+        <v>389</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D390" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A391" s="6">
+        <v>390</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D391" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A392" s="6">
+        <v>391</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D392" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A393" s="6">
+        <v>392</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D393" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A394" s="6">
+        <v>393</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D394" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A395" s="6">
+        <v>394</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D395" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A396" s="6">
+        <v>395</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D396" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A397" s="6">
+        <v>396</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D397" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A398" s="6">
+        <v>397</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D398" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A399" s="6">
+        <v>398</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D399" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A400" s="6">
+        <v>399</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D400" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A401" s="6">
+        <v>400</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D401" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A402" s="6">
+        <v>401</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D402" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A403" s="6">
+        <v>402</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D403" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A404" s="6">
+        <v>403</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D404" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A405" s="6">
+        <v>404</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D405" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A406" s="6">
+        <v>405</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D406" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A407" s="6">
+        <v>406</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D407" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A408" s="6">
+        <v>407</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D408" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A409" s="6">
+        <v>408</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D409" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A410" s="6">
+        <v>409</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D410" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A411" s="6">
+        <v>410</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D411" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A412" s="6">
+        <v>411</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D412" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A413" s="6">
+        <v>412</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D413" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A414" s="6">
+        <v>413</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D414" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A415" s="6">
+        <v>414</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D415" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A416" s="6">
+        <v>415</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D416" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A417" s="6">
+        <v>416</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D417" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A418" s="6">
+        <v>417</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D418" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A419" s="6">
+        <v>418</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D419" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A420" s="6">
+        <v>419</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D420" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A421" s="6">
+        <v>420</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D421" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A422" s="6">
+        <v>421</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D422" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A423" s="6">
+        <v>422</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D423" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A424" s="6">
+        <v>423</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D424" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A425" s="6">
+        <v>424</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D425" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A426" s="6">
+        <v>425</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D426" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A427" s="6">
+        <v>426</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D427" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A428" s="6">
+        <v>427</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D428" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A429" s="6">
+        <v>428</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D429" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A430" s="6">
+        <v>429</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D430" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A431" s="6">
+        <v>430</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D431" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A432" s="6">
+        <v>431</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D432" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A433" s="6">
+        <v>432</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D433" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A434" s="6">
+        <v>433</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D434" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A435" s="6">
+        <v>434</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D435" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A436" s="6">
+        <v>435</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A437" s="6">
+        <v>436</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A438" s="6">
+        <v>437</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D438" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A439" s="6">
+        <v>438</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D439" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A440" s="6">
+        <v>439</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A441" s="6">
+        <v>440</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D441" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A442" s="6">
+        <v>441</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D442" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A443" s="6">
+        <v>442</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D443" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A444" s="6">
+        <v>443</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D444" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A445" s="6">
+        <v>444</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D445" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A446" s="6">
+        <v>445</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D446" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A447" s="6">
+        <v>446</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D447" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A448" s="6">
+        <v>447</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D448" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A449" s="6">
+        <v>448</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D449" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A450" s="6">
+        <v>449</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D450" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A451" s="6">
+        <v>450</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A452" s="6">
+        <v>451</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A453" s="6">
+        <v>452</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D453" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A454" s="6">
+        <v>453</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D454" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A455" s="6">
+        <v>454</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A456" s="6">
+        <v>455</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A457" s="6">
+        <v>455</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D457" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A458" s="6">
+        <v>455</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A459" s="6">
+        <v>455</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D459" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A460" s="6">
+        <v>455</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D460" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A461" s="6">
+        <v>455</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A462" s="6">
+        <v>455</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D462" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A463" s="6">
+        <v>455</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A464" s="6">
+        <v>455</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A465" s="6">
+        <v>455</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A466" s="6">
+        <v>455</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D466" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A467" s="6">
+        <v>455</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D467" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A468" s="6">
+        <v>455</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A469" s="6">
+        <v>455</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D469" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A470" s="6">
+        <v>455</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A471" s="6">
+        <v>455</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A472" s="6">
+        <v>455</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A473" s="6">
+        <v>455</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A474" s="6">
+        <v>455</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A475" s="6">
+        <v>455</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A476" s="6">
+        <v>455</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A477" s="6">
+        <v>455</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A478" s="6">
+        <v>455</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A479" s="6">
+        <v>455</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A480" s="6">
+        <v>455</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A481" s="6">
+        <v>455</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D481" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A482" s="6">
+        <v>455</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D482" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A483" s="6">
+        <v>455</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D483" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A484" s="6">
+        <v>455</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D484" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A485" s="6">
+        <v>455</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A486" s="6">
+        <v>455</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D486" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A487" s="6">
+        <v>455</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A488" s="6">
+        <v>455</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D488" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A489" s="6">
+        <v>455</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A490" s="6">
+        <v>455</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D490" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A491" s="6">
+        <v>455</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D491" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A492" s="6">
+        <v>455</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A493" s="6">
+        <v>455</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D493" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A494" s="6">
+        <v>455</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A495" s="6">
+        <v>455</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D495" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A496" s="6">
+        <v>455</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D496" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A497" s="6">
+        <v>455</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D497" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A498" s="6">
+        <v>455</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D498" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A499" s="6">
+        <v>455</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A500" s="6">
+        <v>455</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A501" s="6">
+        <v>456</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A502" s="6">
+        <v>457</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D502" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A503" s="6">
+        <v>458</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A504" s="6">
+        <v>459</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D504" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A505" s="6">
+        <v>460</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D505" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A506" s="6">
+        <v>461</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A507" s="6">
+        <v>462</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D507" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A508" s="6">
+        <v>463</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D508" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A509" s="6">
+        <v>464</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A510" s="6">
+        <v>465</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D510" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A511" s="6">
+        <v>466</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A512" s="6">
+        <v>466</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D512" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A513" s="6">
+        <v>466</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A514" s="6">
+        <v>466</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A515" s="6">
+        <v>466</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A516" s="6">
+        <v>466</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A517" s="6">
+        <v>466</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1182</v>
       </c>
     </row>
   </sheetData>

--- a/Undertaker Matches.xlsx
+++ b/Undertaker Matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\descargas\Taker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F33FF4D-555C-40E7-AF66-70F988851943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E87E945-D7E4-439C-AB4C-671727FD2B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="1250">
   <si>
     <t>match</t>
   </si>
@@ -3787,6 +3787,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>min 35</t>
   </si>
 </sst>
 </file>
@@ -3834,7 +3837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3850,6 +3853,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3881,7 +3890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3953,6 +3962,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4236,8 +4248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F517"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -4246,7 +4258,7 @@
     <col min="2" max="2" width="39" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="159.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4418,20 +4430,20 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+    <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
@@ -4446,7 +4458,7 @@
       <c r="D13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
@@ -4461,7 +4473,9 @@
       <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="28" t="s">
+        <v>1249</v>
+      </c>
       <c r="F14" t="s">
         <v>1181</v>
       </c>
